--- a/braph2genesis/workflows/structural/example data ST (MRI)/xls/ST_group2.xlsx
+++ b/braph2genesis/workflows/structural/example data ST (MRI)/xls/ST_group2.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -683,17 +684,180 @@
   </si>
   <si>
     <t xml:space="preserve">Notes 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,6 +879,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -759,7 +931,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,6 +942,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -785,17 +973,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BS51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51 D1:BS1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11771,4 +11959,593 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:C"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>54.3893182249734</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>62.5324198490171</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>74.6096683642242</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>93.0878075945433</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>93.4199840839674</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>57.0925886754896</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>93.6766751792277</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>93.0725126709325</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>71.8419041925278</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>86.012621099996</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>56.3848852382246</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>68.9792577181823</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>91.208098633508</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>85.6493298301799</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>93.1771591876806</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>79.5083314620464</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>51.6070255358385</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>88.2108187640949</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>92.0296961490897</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>80.5430819685998</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>84.0983058760249</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>83.4409610656212</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>67.6502158790375</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>79.49650505799</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>57.7034009515202</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>81.7720739608823</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>51.4324780869839</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>62.46153432324</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>52.0777125784019</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>54.3709301556131</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>87.0556022747281</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>81.2672880339117</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>64.2694766027387</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>92.7599921977259</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>51.5500736226308</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>69.7434961845379</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>67.1701305691853</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>84.4482554667051</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>85.7839955511678</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>58.409267204947</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>72.0393978104704</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>70.0513790319904</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>79.0840854550069</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>81.9214173886132</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>83.9609006892062</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>62.421128464936</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>80.5866204584153</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>79.4794101788228</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>57.3175280837583</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>55.3548956701269</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>